--- a/Inflación.xlsx
+++ b/Inflación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan David\Documents\Python\Bootcamp_project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC3912D-5E8F-4B87-BCEE-9819D43131E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B996480-5037-48FF-A150-56244E9342BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{C8D208D0-6EC1-416C-9BC4-E29CA87F496F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C8D208D0-6EC1-416C-9BC4-E29CA87F496F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
   <si>
     <t>Total nacional</t>
   </si>
@@ -131,6 +131,42 @@
   </si>
   <si>
     <t>servicios_vivienda</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
   </si>
 </sst>
 </file>
@@ -287,25 +323,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -798,6 +815,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1126,24 +1162,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23D9E28E-76EB-4555-B522-E67C47B5C7AF}" name="Tabla13" displayName="Tabla13" ref="A1:O51" totalsRowShown="0" headerRowDxfId="16" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23D9E28E-76EB-4555-B522-E67C47B5C7AF}" name="Tabla13" displayName="Tabla13" ref="A1:O51" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:O51" xr:uid="{23D9E28E-76EB-4555-B522-E67C47B5C7AF}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{A2F6D469-58D3-4FCC-B7F9-96BF31A78446}" name="Año" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{7C4B545C-62BE-4439-880E-F5BB0149490B}" name="Mes" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{4B342705-8FAA-409E-AF65-7251B4FC30CB}" name="nivel_general" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{C5D989B1-0724-4733-9F54-BA49A9217D78}" name="alimentos_bebidas_no_alc" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{C1AC7865-11A6-4013-B5C7-56FC9BF1506F}" name="alcohol_tabaco" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{5C7A97E7-1164-4581-AFD6-9FDE0F75E14A}" name="vestimenta" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{4866A1AC-8FCB-498E-90C9-82196447B03A}" name="servicios_vivienda" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00196887-5077-4500-8B09-2878A4F272CA}" name="hogar" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{02564D70-4555-46BB-B068-484E99A564AA}" name="salud" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{CF0D8AC9-FF19-4926-80FB-382BC56AD75B}" name="transporte" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{DCE1648C-348E-4F8E-BF93-FD6E8D5538DF}" name="comunicacion" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{23D53996-55D4-4543-8DE5-3F75DA6CE391}" name="recreacion" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{AE6B4B4A-516C-4D25-8219-89A201941D3A}" name="educacion" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{3AEC566F-CAB9-4D18-ABC5-63357B73E334}" name="restaurantes_hoteles" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{4E09C514-72E0-475D-9DA1-7F9C2B9A778A}" name="bienes_servicios_varios" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A2F6D469-58D3-4FCC-B7F9-96BF31A78446}" name="Año" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{7C4B545C-62BE-4439-880E-F5BB0149490B}" name="Mes" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4B342705-8FAA-409E-AF65-7251B4FC30CB}" name="nivel_general" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C5D989B1-0724-4733-9F54-BA49A9217D78}" name="alimentos_bebidas_no_alc" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{C1AC7865-11A6-4013-B5C7-56FC9BF1506F}" name="alcohol_tabaco" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{5C7A97E7-1164-4581-AFD6-9FDE0F75E14A}" name="vestimenta" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{4866A1AC-8FCB-498E-90C9-82196447B03A}" name="servicios_vivienda" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00196887-5077-4500-8B09-2878A4F272CA}" name="hogar" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{02564D70-4555-46BB-B068-484E99A564AA}" name="salud" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{CF0D8AC9-FF19-4926-80FB-382BC56AD75B}" name="transporte" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{DCE1648C-348E-4F8E-BF93-FD6E8D5538DF}" name="comunicacion" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{23D53996-55D4-4543-8DE5-3F75DA6CE391}" name="recreacion" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{AE6B4B4A-516C-4D25-8219-89A201941D3A}" name="educacion" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{3AEC566F-CAB9-4D18-ABC5-63357B73E334}" name="restaurantes_hoteles" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{4E09C514-72E0-475D-9DA1-7F9C2B9A778A}" name="bienes_servicios_varios" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4295,8 +4331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49C58EA-E2AB-4BFC-B6CD-42A8B2150D88}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4364,8 +4400,8 @@
       <c r="A2">
         <v>2017</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="8">
         <v>1.6</v>
@@ -4411,8 +4447,8 @@
       <c r="A3">
         <v>2017</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3" s="8">
         <v>2.1</v>
@@ -4458,8 +4494,8 @@
       <c r="A4">
         <v>2017</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>35</v>
       </c>
       <c r="C4" s="8">
         <v>2.4</v>
@@ -4505,8 +4541,8 @@
       <c r="A5">
         <v>2017</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>36</v>
       </c>
       <c r="C5" s="8">
         <v>2.7</v>
@@ -4552,8 +4588,8 @@
       <c r="A6">
         <v>2017</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>37</v>
       </c>
       <c r="C6" s="8">
         <v>1.4</v>
@@ -4599,8 +4635,8 @@
       <c r="A7">
         <v>2017</v>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="8">
         <v>1.2</v>
@@ -4646,8 +4682,8 @@
       <c r="A8">
         <v>2017</v>
       </c>
-      <c r="B8">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>39</v>
       </c>
       <c r="C8" s="8">
         <v>1.7</v>
@@ -4693,8 +4729,8 @@
       <c r="A9">
         <v>2017</v>
       </c>
-      <c r="B9">
-        <v>8</v>
+      <c r="B9" t="s">
+        <v>40</v>
       </c>
       <c r="C9" s="8">
         <v>1.4</v>
@@ -4740,8 +4776,8 @@
       <c r="A10">
         <v>2017</v>
       </c>
-      <c r="B10">
-        <v>9</v>
+      <c r="B10" t="s">
+        <v>41</v>
       </c>
       <c r="C10" s="8">
         <v>1.9</v>
@@ -4787,8 +4823,8 @@
       <c r="A11">
         <v>2017</v>
       </c>
-      <c r="B11">
-        <v>10</v>
+      <c r="B11" t="s">
+        <v>42</v>
       </c>
       <c r="C11" s="8">
         <v>1.5</v>
@@ -4834,8 +4870,8 @@
       <c r="A12">
         <v>2017</v>
       </c>
-      <c r="B12">
-        <v>11</v>
+      <c r="B12" t="s">
+        <v>43</v>
       </c>
       <c r="C12" s="8">
         <v>1.4</v>
@@ -4881,8 +4917,8 @@
       <c r="A13">
         <v>2017</v>
       </c>
-      <c r="B13">
-        <v>12</v>
+      <c r="B13" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="8">
         <v>3.1</v>
@@ -4928,8 +4964,8 @@
       <c r="A14">
         <v>2018</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="8">
         <v>1.8</v>
@@ -4975,8 +5011,8 @@
       <c r="A15">
         <v>2018</v>
       </c>
-      <c r="B15">
-        <v>2</v>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="8">
         <v>2.4</v>
@@ -5022,8 +5058,8 @@
       <c r="A16">
         <v>2018</v>
       </c>
-      <c r="B16">
-        <v>3</v>
+      <c r="B16" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="8">
         <v>2.2999999999999998</v>
@@ -5069,8 +5105,8 @@
       <c r="A17">
         <v>2018</v>
       </c>
-      <c r="B17">
-        <v>4</v>
+      <c r="B17" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="8">
         <v>2.7</v>
@@ -5116,8 +5152,8 @@
       <c r="A18">
         <v>2018</v>
       </c>
-      <c r="B18">
-        <v>5</v>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="8">
         <v>2.1</v>
@@ -5163,8 +5199,8 @@
       <c r="A19">
         <v>2018</v>
       </c>
-      <c r="B19">
-        <v>6</v>
+      <c r="B19" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="8">
         <v>3.7</v>
@@ -5210,8 +5246,8 @@
       <c r="A20">
         <v>2018</v>
       </c>
-      <c r="B20">
-        <v>7</v>
+      <c r="B20" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="8">
         <v>3.1</v>
@@ -5257,8 +5293,8 @@
       <c r="A21">
         <v>2018</v>
       </c>
-      <c r="B21">
-        <v>8</v>
+      <c r="B21" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="8">
         <v>3.9</v>
@@ -5304,8 +5340,8 @@
       <c r="A22">
         <v>2018</v>
       </c>
-      <c r="B22">
-        <v>9</v>
+      <c r="B22" t="s">
+        <v>41</v>
       </c>
       <c r="C22" s="8">
         <v>6.5</v>
@@ -5351,8 +5387,8 @@
       <c r="A23">
         <v>2018</v>
       </c>
-      <c r="B23">
-        <v>10</v>
+      <c r="B23" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="8">
         <v>5.4</v>
@@ -5398,8 +5434,8 @@
       <c r="A24">
         <v>2018</v>
       </c>
-      <c r="B24">
-        <v>11</v>
+      <c r="B24" t="s">
+        <v>43</v>
       </c>
       <c r="C24" s="8">
         <v>3.2</v>
@@ -5445,8 +5481,8 @@
       <c r="A25">
         <v>2018</v>
       </c>
-      <c r="B25">
-        <v>12</v>
+      <c r="B25" t="s">
+        <v>32</v>
       </c>
       <c r="C25" s="8">
         <v>2.6</v>
@@ -5492,8 +5528,8 @@
       <c r="A26">
         <v>2019</v>
       </c>
-      <c r="B26">
-        <v>1</v>
+      <c r="B26" t="s">
+        <v>33</v>
       </c>
       <c r="C26" s="8">
         <v>2.9</v>
@@ -5539,8 +5575,8 @@
       <c r="A27">
         <v>2019</v>
       </c>
-      <c r="B27">
-        <v>2</v>
+      <c r="B27" t="s">
+        <v>34</v>
       </c>
       <c r="C27" s="8">
         <v>3.8</v>
@@ -5586,8 +5622,8 @@
       <c r="A28">
         <v>2019</v>
       </c>
-      <c r="B28">
-        <v>3</v>
+      <c r="B28" t="s">
+        <v>35</v>
       </c>
       <c r="C28" s="8">
         <v>4.7</v>
@@ -5633,8 +5669,8 @@
       <c r="A29">
         <v>2019</v>
       </c>
-      <c r="B29">
-        <v>4</v>
+      <c r="B29" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="8">
         <v>3.4</v>
@@ -5680,8 +5716,8 @@
       <c r="A30">
         <v>2019</v>
       </c>
-      <c r="B30">
-        <v>5</v>
+      <c r="B30" t="s">
+        <v>37</v>
       </c>
       <c r="C30" s="8">
         <v>3.1</v>
@@ -5727,8 +5763,8 @@
       <c r="A31">
         <v>2019</v>
       </c>
-      <c r="B31">
-        <v>6</v>
+      <c r="B31" t="s">
+        <v>38</v>
       </c>
       <c r="C31" s="8">
         <v>2.7</v>
@@ -5774,8 +5810,8 @@
       <c r="A32">
         <v>2019</v>
       </c>
-      <c r="B32">
-        <v>7</v>
+      <c r="B32" t="s">
+        <v>39</v>
       </c>
       <c r="C32" s="8">
         <v>2.2000000000000002</v>
@@ -5821,8 +5857,8 @@
       <c r="A33">
         <v>2019</v>
       </c>
-      <c r="B33">
-        <v>8</v>
+      <c r="B33" t="s">
+        <v>40</v>
       </c>
       <c r="C33" s="8">
         <v>4</v>
@@ -5868,8 +5904,8 @@
       <c r="A34">
         <v>2019</v>
       </c>
-      <c r="B34">
-        <v>9</v>
+      <c r="B34" t="s">
+        <v>41</v>
       </c>
       <c r="C34" s="8">
         <v>5.9</v>
@@ -5915,8 +5951,8 @@
       <c r="A35">
         <v>2019</v>
       </c>
-      <c r="B35">
-        <v>10</v>
+      <c r="B35" t="s">
+        <v>42</v>
       </c>
       <c r="C35" s="8">
         <v>3.3</v>
@@ -5962,8 +5998,8 @@
       <c r="A36">
         <v>2019</v>
       </c>
-      <c r="B36">
-        <v>11</v>
+      <c r="B36" t="s">
+        <v>43</v>
       </c>
       <c r="C36" s="8">
         <v>4.3</v>
@@ -6009,8 +6045,8 @@
       <c r="A37">
         <v>2019</v>
       </c>
-      <c r="B37">
-        <v>12</v>
+      <c r="B37" t="s">
+        <v>32</v>
       </c>
       <c r="C37" s="8">
         <v>3.7</v>
@@ -6056,8 +6092,8 @@
       <c r="A38">
         <v>2020</v>
       </c>
-      <c r="B38">
-        <v>1</v>
+      <c r="B38" t="s">
+        <v>33</v>
       </c>
       <c r="C38" s="8">
         <v>2.2999999999999998</v>
@@ -6103,8 +6139,8 @@
       <c r="A39">
         <v>2020</v>
       </c>
-      <c r="B39">
-        <v>2</v>
+      <c r="B39" t="s">
+        <v>34</v>
       </c>
       <c r="C39" s="8">
         <v>2</v>
@@ -6150,8 +6186,8 @@
       <c r="A40">
         <v>2020</v>
       </c>
-      <c r="B40">
-        <v>3</v>
+      <c r="B40" t="s">
+        <v>35</v>
       </c>
       <c r="C40" s="8">
         <v>3.3</v>
@@ -6197,8 +6233,8 @@
       <c r="A41">
         <v>2020</v>
       </c>
-      <c r="B41">
-        <v>4</v>
+      <c r="B41" t="s">
+        <v>36</v>
       </c>
       <c r="C41" s="8">
         <v>1.5</v>
@@ -6244,8 +6280,8 @@
       <c r="A42">
         <v>2020</v>
       </c>
-      <c r="B42">
-        <v>5</v>
+      <c r="B42" t="s">
+        <v>37</v>
       </c>
       <c r="C42" s="8">
         <v>1.5</v>
@@ -6291,8 +6327,8 @@
       <c r="A43">
         <v>2020</v>
       </c>
-      <c r="B43">
-        <v>6</v>
+      <c r="B43" t="s">
+        <v>38</v>
       </c>
       <c r="C43" s="8">
         <v>2.2000000000000002</v>
@@ -6338,8 +6374,8 @@
       <c r="A44">
         <v>2020</v>
       </c>
-      <c r="B44">
-        <v>7</v>
+      <c r="B44" t="s">
+        <v>39</v>
       </c>
       <c r="C44" s="8">
         <v>1.9</v>
@@ -6385,8 +6421,8 @@
       <c r="A45">
         <v>2020</v>
       </c>
-      <c r="B45">
-        <v>8</v>
+      <c r="B45" t="s">
+        <v>40</v>
       </c>
       <c r="C45" s="8">
         <v>2.7</v>
@@ -6432,8 +6468,8 @@
       <c r="A46">
         <v>2020</v>
       </c>
-      <c r="B46">
-        <v>9</v>
+      <c r="B46" t="s">
+        <v>41</v>
       </c>
       <c r="C46" s="8">
         <v>2.8</v>
@@ -6479,8 +6515,8 @@
       <c r="A47">
         <v>2020</v>
       </c>
-      <c r="B47">
-        <v>10</v>
+      <c r="B47" t="s">
+        <v>42</v>
       </c>
       <c r="C47" s="8">
         <v>3.8</v>
@@ -6526,8 +6562,8 @@
       <c r="A48">
         <v>2020</v>
       </c>
-      <c r="B48">
-        <v>11</v>
+      <c r="B48" t="s">
+        <v>43</v>
       </c>
       <c r="C48" s="8">
         <v>3.2</v>
@@ -6573,8 +6609,8 @@
       <c r="A49">
         <v>2020</v>
       </c>
-      <c r="B49">
-        <v>12</v>
+      <c r="B49" t="s">
+        <v>32</v>
       </c>
       <c r="C49" s="8">
         <v>4</v>
@@ -6620,8 +6656,8 @@
       <c r="A50">
         <v>2021</v>
       </c>
-      <c r="B50">
-        <v>1</v>
+      <c r="B50" t="s">
+        <v>33</v>
       </c>
       <c r="C50" s="8">
         <v>4</v>
@@ -6667,8 +6703,8 @@
       <c r="A51">
         <v>2021</v>
       </c>
-      <c r="B51">
-        <v>2</v>
+      <c r="B51" t="s">
+        <v>34</v>
       </c>
       <c r="C51" s="8">
         <v>3.6</v>
@@ -6714,8 +6750,8 @@
       <c r="A52">
         <v>2021</v>
       </c>
-      <c r="B52">
-        <v>3</v>
+      <c r="B52" t="s">
+        <v>35</v>
       </c>
       <c r="C52" s="8">
         <v>4.8</v>
@@ -6761,8 +6797,8 @@
       <c r="A53">
         <v>2021</v>
       </c>
-      <c r="B53">
-        <v>4</v>
+      <c r="B53" t="s">
+        <v>36</v>
       </c>
       <c r="C53" s="8">
         <v>4.0999999999999996</v>
@@ -6808,8 +6844,8 @@
       <c r="A54">
         <v>2021</v>
       </c>
-      <c r="B54">
-        <v>5</v>
+      <c r="B54" t="s">
+        <v>37</v>
       </c>
       <c r="C54" s="8">
         <v>3.3</v>
@@ -6855,8 +6891,8 @@
       <c r="A55">
         <v>2021</v>
       </c>
-      <c r="B55">
-        <v>6</v>
+      <c r="B55" t="s">
+        <v>38</v>
       </c>
       <c r="C55" s="8">
         <v>3.2</v>
@@ -6902,8 +6938,8 @@
       <c r="A56">
         <v>2021</v>
       </c>
-      <c r="B56">
-        <v>7</v>
+      <c r="B56" t="s">
+        <v>39</v>
       </c>
       <c r="C56" s="8">
         <v>3</v>
@@ -6949,8 +6985,8 @@
       <c r="A57">
         <v>2021</v>
       </c>
-      <c r="B57">
-        <v>8</v>
+      <c r="B57" t="s">
+        <v>40</v>
       </c>
       <c r="C57" s="8">
         <v>2.5</v>
@@ -6996,8 +7032,8 @@
       <c r="A58">
         <v>2021</v>
       </c>
-      <c r="B58">
-        <v>9</v>
+      <c r="B58" t="s">
+        <v>41</v>
       </c>
       <c r="C58" s="8">
         <v>3.5</v>
@@ -7043,8 +7079,8 @@
       <c r="A59">
         <v>2021</v>
       </c>
-      <c r="B59">
-        <v>10</v>
+      <c r="B59" t="s">
+        <v>42</v>
       </c>
       <c r="C59" s="8">
         <v>3.5</v>
@@ -7090,8 +7126,8 @@
       <c r="A60">
         <v>2021</v>
       </c>
-      <c r="B60">
-        <v>11</v>
+      <c r="B60" t="s">
+        <v>43</v>
       </c>
       <c r="C60" s="8">
         <v>2.5</v>
@@ -7137,8 +7173,8 @@
       <c r="A61">
         <v>2021</v>
       </c>
-      <c r="B61">
-        <v>12</v>
+      <c r="B61" t="s">
+        <v>32</v>
       </c>
       <c r="C61" s="8">
         <v>3.8</v>
@@ -7184,8 +7220,8 @@
       <c r="A62">
         <v>2022</v>
       </c>
-      <c r="B62">
-        <v>1</v>
+      <c r="B62" t="s">
+        <v>33</v>
       </c>
       <c r="C62" s="8">
         <v>3.9</v>
@@ -7241,8 +7277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540A8D9A-B90C-40B4-9A89-D6F698AEC532}">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7313,8 +7349,8 @@
       <c r="A2">
         <v>2017</v>
       </c>
-      <c r="B2">
-        <v>12</v>
+      <c r="B2" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="13">
         <v>24.8</v>
@@ -7360,8 +7396,8 @@
       <c r="A3">
         <v>2018</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="13">
         <v>25</v>
@@ -7407,8 +7443,8 @@
       <c r="A4">
         <v>2018</v>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="13">
         <v>25.4</v>
@@ -7454,8 +7490,8 @@
       <c r="A5">
         <v>2018</v>
       </c>
-      <c r="B5">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>35</v>
       </c>
       <c r="C5" s="13">
         <v>25.4</v>
@@ -7501,8 +7537,8 @@
       <c r="A6">
         <v>2018</v>
       </c>
-      <c r="B6">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="13">
         <v>25.5</v>
@@ -7548,8 +7584,8 @@
       <c r="A7">
         <v>2018</v>
       </c>
-      <c r="B7">
-        <v>5</v>
+      <c r="B7" t="s">
+        <v>37</v>
       </c>
       <c r="C7" s="13">
         <v>26.3</v>
@@ -7595,8 +7631,8 @@
       <c r="A8">
         <v>2018</v>
       </c>
-      <c r="B8">
-        <v>6</v>
+      <c r="B8" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="13">
         <v>29.5</v>
@@ -7642,8 +7678,8 @@
       <c r="A9">
         <v>2018</v>
       </c>
-      <c r="B9">
-        <v>7</v>
+      <c r="B9" t="s">
+        <v>39</v>
       </c>
       <c r="C9" s="13">
         <v>31.2</v>
@@ -7689,8 +7725,8 @@
       <c r="A10">
         <v>2018</v>
       </c>
-      <c r="B10">
-        <v>8</v>
+      <c r="B10" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="13">
         <v>34.4</v>
@@ -7736,8 +7772,8 @@
       <c r="A11">
         <v>2018</v>
       </c>
-      <c r="B11">
-        <v>9</v>
+      <c r="B11" t="s">
+        <v>41</v>
       </c>
       <c r="C11" s="13">
         <v>40.5</v>
@@ -7783,8 +7819,8 @@
       <c r="A12">
         <v>2018</v>
       </c>
-      <c r="B12">
-        <v>10</v>
+      <c r="B12" t="s">
+        <v>42</v>
       </c>
       <c r="C12" s="13">
         <v>45.9</v>
@@ -7830,8 +7866,8 @@
       <c r="A13">
         <v>2018</v>
       </c>
-      <c r="B13">
-        <v>11</v>
+      <c r="B13" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="13">
         <v>48.5</v>
@@ -7877,8 +7913,8 @@
       <c r="A14">
         <v>2018</v>
       </c>
-      <c r="B14">
-        <v>12</v>
+      <c r="B14" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="13">
         <v>47.6</v>
@@ -7924,8 +7960,8 @@
       <c r="A15">
         <v>2019</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="13">
         <v>49.3</v>
@@ -7971,8 +8007,8 @@
       <c r="A16">
         <v>2019</v>
       </c>
-      <c r="B16">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="13">
         <v>51.3</v>
@@ -8018,8 +8054,8 @@
       <c r="A17">
         <v>2019</v>
       </c>
-      <c r="B17">
-        <v>3</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="13">
         <v>54.7</v>
@@ -8065,8 +8101,8 @@
       <c r="A18">
         <v>2019</v>
       </c>
-      <c r="B18">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>36</v>
       </c>
       <c r="C18" s="13">
         <v>55.8</v>
@@ -8112,8 +8148,8 @@
       <c r="A19">
         <v>2019</v>
       </c>
-      <c r="B19">
-        <v>5</v>
+      <c r="B19" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="13">
         <v>57.3</v>
@@ -8159,8 +8195,8 @@
       <c r="A20">
         <v>2019</v>
       </c>
-      <c r="B20">
-        <v>6</v>
+      <c r="B20" t="s">
+        <v>38</v>
       </c>
       <c r="C20" s="13">
         <v>55.8</v>
@@ -8206,8 +8242,8 @@
       <c r="A21">
         <v>2019</v>
       </c>
-      <c r="B21">
-        <v>7</v>
+      <c r="B21" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="13">
         <v>54.4</v>
@@ -8253,8 +8289,8 @@
       <c r="A22">
         <v>2019</v>
       </c>
-      <c r="B22">
-        <v>8</v>
+      <c r="B22" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="13">
         <v>54.5</v>
@@ -8300,8 +8336,8 @@
       <c r="A23">
         <v>2019</v>
       </c>
-      <c r="B23">
-        <v>9</v>
+      <c r="B23" t="s">
+        <v>41</v>
       </c>
       <c r="C23" s="13">
         <v>53.5</v>
@@ -8347,8 +8383,8 @@
       <c r="A24">
         <v>2019</v>
       </c>
-      <c r="B24">
-        <v>10</v>
+      <c r="B24" t="s">
+        <v>42</v>
       </c>
       <c r="C24" s="13">
         <v>50.5</v>
@@ -8394,8 +8430,8 @@
       <c r="A25">
         <v>2019</v>
       </c>
-      <c r="B25">
-        <v>11</v>
+      <c r="B25" t="s">
+        <v>43</v>
       </c>
       <c r="C25" s="13">
         <v>52.1</v>
@@ -8441,8 +8477,8 @@
       <c r="A26">
         <v>2019</v>
       </c>
-      <c r="B26">
-        <v>12</v>
+      <c r="B26" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="13">
         <v>53.8</v>
@@ -8488,8 +8524,8 @@
       <c r="A27">
         <v>2020</v>
       </c>
-      <c r="B27">
-        <v>1</v>
+      <c r="B27" t="s">
+        <v>33</v>
       </c>
       <c r="C27" s="13">
         <v>52.9</v>
@@ -8535,8 +8571,8 @@
       <c r="A28">
         <v>2020</v>
       </c>
-      <c r="B28">
-        <v>2</v>
+      <c r="B28" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="13">
         <v>50.3</v>
@@ -8582,8 +8618,8 @@
       <c r="A29">
         <v>2020</v>
       </c>
-      <c r="B29">
-        <v>3</v>
+      <c r="B29" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="13">
         <v>48.4</v>
@@ -8629,8 +8665,8 @@
       <c r="A30">
         <v>2020</v>
       </c>
-      <c r="B30">
-        <v>4</v>
+      <c r="B30" t="s">
+        <v>36</v>
       </c>
       <c r="C30" s="13">
         <v>45.6</v>
@@ -8676,8 +8712,8 @@
       <c r="A31">
         <v>2020</v>
       </c>
-      <c r="B31">
-        <v>5</v>
+      <c r="B31" t="s">
+        <v>37</v>
       </c>
       <c r="C31" s="13">
         <v>43.4</v>
@@ -8723,8 +8759,8 @@
       <c r="A32">
         <v>2020</v>
       </c>
-      <c r="B32">
-        <v>6</v>
+      <c r="B32" t="s">
+        <v>38</v>
       </c>
       <c r="C32" s="13">
         <v>42.8</v>
@@ -8770,8 +8806,8 @@
       <c r="A33">
         <v>2020</v>
       </c>
-      <c r="B33">
-        <v>7</v>
+      <c r="B33" t="s">
+        <v>39</v>
       </c>
       <c r="C33" s="13">
         <v>42.4</v>
@@ -8817,8 +8853,8 @@
       <c r="A34">
         <v>2020</v>
       </c>
-      <c r="B34">
-        <v>8</v>
+      <c r="B34" t="s">
+        <v>40</v>
       </c>
       <c r="C34" s="13">
         <v>40.700000000000003</v>
@@ -8864,8 +8900,8 @@
       <c r="A35">
         <v>2020</v>
       </c>
-      <c r="B35">
-        <v>9</v>
+      <c r="B35" t="s">
+        <v>41</v>
       </c>
       <c r="C35" s="13">
         <v>36.6</v>
@@ -8911,8 +8947,8 @@
       <c r="A36">
         <v>2020</v>
       </c>
-      <c r="B36">
-        <v>10</v>
+      <c r="B36" t="s">
+        <v>42</v>
       </c>
       <c r="C36" s="13">
         <v>37.200000000000003</v>
@@ -8958,8 +8994,8 @@
       <c r="A37">
         <v>2020</v>
       </c>
-      <c r="B37">
-        <v>11</v>
+      <c r="B37" t="s">
+        <v>43</v>
       </c>
       <c r="C37" s="13">
         <v>35.799999999999997</v>
@@ -9005,8 +9041,8 @@
       <c r="A38">
         <v>2020</v>
       </c>
-      <c r="B38">
-        <v>12</v>
+      <c r="B38" t="s">
+        <v>32</v>
       </c>
       <c r="C38" s="13">
         <v>36.1</v>
@@ -9052,8 +9088,8 @@
       <c r="A39">
         <v>2021</v>
       </c>
-      <c r="B39">
-        <v>1</v>
+      <c r="B39" t="s">
+        <v>33</v>
       </c>
       <c r="C39" s="13">
         <v>38.5</v>
@@ -9099,8 +9135,8 @@
       <c r="A40">
         <v>2021</v>
       </c>
-      <c r="B40">
-        <v>2</v>
+      <c r="B40" t="s">
+        <v>34</v>
       </c>
       <c r="C40" s="13">
         <v>40.700000000000003</v>
@@ -9146,8 +9182,8 @@
       <c r="A41">
         <v>2021</v>
       </c>
-      <c r="B41">
-        <v>3</v>
+      <c r="B41" t="s">
+        <v>35</v>
       </c>
       <c r="C41" s="13">
         <v>42.6</v>
@@ -9193,8 +9229,8 @@
       <c r="A42">
         <v>2021</v>
       </c>
-      <c r="B42">
-        <v>4</v>
+      <c r="B42" t="s">
+        <v>36</v>
       </c>
       <c r="C42" s="13">
         <v>46.3</v>
@@ -9240,8 +9276,8 @@
       <c r="A43">
         <v>2021</v>
       </c>
-      <c r="B43">
-        <v>5</v>
+      <c r="B43" t="s">
+        <v>37</v>
       </c>
       <c r="C43" s="14">
         <v>48.8</v>
@@ -9287,8 +9323,8 @@
       <c r="A44">
         <v>2021</v>
       </c>
-      <c r="B44">
-        <v>6</v>
+      <c r="B44" t="s">
+        <v>38</v>
       </c>
       <c r="C44" s="14">
         <v>50.2</v>
@@ -9334,8 +9370,8 @@
       <c r="A45">
         <v>2021</v>
       </c>
-      <c r="B45">
-        <v>7</v>
+      <c r="B45" t="s">
+        <v>39</v>
       </c>
       <c r="C45" s="14">
         <v>51.8</v>
@@ -9381,8 +9417,8 @@
       <c r="A46">
         <v>2021</v>
       </c>
-      <c r="B46">
-        <v>8</v>
+      <c r="B46" t="s">
+        <v>40</v>
       </c>
       <c r="C46" s="14">
         <v>51.4</v>
@@ -9428,8 +9464,8 @@
       <c r="A47">
         <v>2021</v>
       </c>
-      <c r="B47">
-        <v>9</v>
+      <c r="B47" t="s">
+        <v>41</v>
       </c>
       <c r="C47" s="14">
         <v>52.5</v>
@@ -9475,8 +9511,8 @@
       <c r="A48">
         <v>2021</v>
       </c>
-      <c r="B48">
-        <v>10</v>
+      <c r="B48" t="s">
+        <v>42</v>
       </c>
       <c r="C48" s="14">
         <v>52.1</v>
@@ -9522,8 +9558,8 @@
       <c r="A49">
         <v>2021</v>
       </c>
-      <c r="B49">
-        <v>11</v>
+      <c r="B49" t="s">
+        <v>43</v>
       </c>
       <c r="C49" s="14">
         <v>51.2</v>
@@ -9569,8 +9605,8 @@
       <c r="A50">
         <v>2021</v>
       </c>
-      <c r="B50">
-        <v>12</v>
+      <c r="B50" t="s">
+        <v>32</v>
       </c>
       <c r="C50" s="14">
         <v>50.9</v>
@@ -9616,8 +9652,8 @@
       <c r="A51">
         <v>2022</v>
       </c>
-      <c r="B51">
-        <v>1</v>
+      <c r="B51" t="s">
+        <v>33</v>
       </c>
       <c r="C51" s="14">
         <v>50.7</v>
@@ -9737,6 +9773,7 @@
       <c r="T62" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
